--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>C=</t>
   </si>
@@ -238,6 +238,72 @@
   </si>
   <si>
     <t>Dispositivo</t>
+  </si>
+  <si>
+    <t>Característica de erro</t>
+  </si>
+  <si>
+    <t>Estrutural 3D - projeto?</t>
+  </si>
+  <si>
+    <t>TER UM EQUIPAMENTO QUE POSSA MEDIR COM CONFIABILIDADE PROBLEMAS DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDUÇÂO NERVAL RELACIONADOS A NEUROPATIA PERIFÉRICA, TESTÁ-LO EM </t>
+  </si>
+  <si>
+    <t>PESSOAS COM DIABETES, NEUROPATIA E SEM SIMTOMAS PARA COROBORAR COM</t>
+  </si>
+  <si>
+    <t>A QUALIDADE DO EQUIPAMENTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILIZAR TATICAS DE PROCESSAMENTO DE SINAIS PARA EXTRAIR MAIS DADOS DOS </t>
+  </si>
+  <si>
+    <t>QUE OS ATUALMENTE ENCONTRADOS NA LITERATURA.</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>PROCESSAMENTO</t>
+  </si>
+  <si>
+    <t>Confirmar layout</t>
+  </si>
+  <si>
+    <t>AD Converter</t>
+  </si>
+  <si>
+    <t>DA Converter</t>
+  </si>
+  <si>
+    <t>Minimalista?</t>
+  </si>
+  <si>
+    <t>Auto alimentado</t>
+  </si>
+  <si>
+    <t>Placas inox</t>
+  </si>
+  <si>
+    <t>Teste ALTERA</t>
+  </si>
+  <si>
+    <t>Aquisição e analise</t>
+  </si>
+  <si>
+    <t>Injeção multi-frequencial</t>
+  </si>
+  <si>
+    <t>Recepção</t>
+  </si>
+  <si>
+    <t>PC comunication?</t>
+  </si>
+  <si>
+    <t>Disponibilização de dados</t>
   </si>
 </sst>
 </file>
@@ -248,8 +314,16 @@
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -292,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -302,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,19 +1197,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="15" max="15" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" customWidth="1"/>
     <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1177,56 +1253,137 @@
       <c r="P1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="C2" t="s">
         <v>62</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="O3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="O4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="O5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="O6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="O7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="O8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="O9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="O10" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15">
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15">
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="15:15">
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15">
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="15:15">
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>C=</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Reunião CÉ</t>
   </si>
   <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Diabetes Miellitus</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>Processamento do sinal</t>
   </si>
   <si>
-    <t>Instrumentação (tipo de tratamento)</t>
-  </si>
-  <si>
     <t>Tipo de Hardware (justificativa)</t>
   </si>
   <si>
@@ -304,6 +298,9 @@
   </si>
   <si>
     <t>Disponibilização de dados</t>
+  </si>
+  <si>
+    <t>Instrumentação (tipo de tratamento do sinal)</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1197,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1248,13 +1245,13 @@
         <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1265,10 +1262,10 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1276,10 +1273,10 @@
         <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1287,10 +1284,10 @@
         <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1298,10 +1295,10 @@
         <v>66</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1309,29 +1306,29 @@
         <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="O7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="O8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1339,47 +1336,42 @@
         <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="O10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="15:15">
       <c r="O18" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
     <t>C=</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Dez</t>
   </si>
   <si>
-    <t>Reunião CÉ</t>
-  </si>
-  <si>
     <t>Diabetes Miellitus</t>
   </si>
   <si>
@@ -267,12 +264,6 @@
     <t>Confirmar layout</t>
   </si>
   <si>
-    <t>AD Converter</t>
-  </si>
-  <si>
-    <t>DA Converter</t>
-  </si>
-  <si>
     <t>Minimalista?</t>
   </si>
   <si>
@@ -301,6 +292,33 @@
   </si>
   <si>
     <t>Instrumentação (tipo de tratamento do sinal)</t>
+  </si>
+  <si>
+    <t>DA Converter ad5445</t>
+  </si>
+  <si>
+    <t>AD Converter ad9288</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>23 CE</t>
+  </si>
+  <si>
+    <t>9 CE</t>
+  </si>
+  <si>
+    <t>9 Reunião CÉ</t>
+  </si>
+  <si>
+    <t>13 CE</t>
+  </si>
+  <si>
+    <t>27 CE</t>
+  </si>
+  <si>
+    <t>LPF DA (opa404$-656?)</t>
   </si>
 </sst>
 </file>
@@ -1194,20 +1212,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="15" max="15" width="30.5546875" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1245,133 +1265,172 @@
         <v>61</v>
       </c>
       <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="N4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="O6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="O7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" t="s">
+    </row>
+    <row r="10" spans="1:19">
+      <c r="Q10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16">
+      <c r="O18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="15:16">
+      <c r="O19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="15:15">
-      <c r="O18" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="15:15">
-      <c r="O19" t="s">
+    <row r="20" spans="15:16">
+      <c r="O20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="15:15">
-      <c r="O20" t="s">
+    <row r="21" spans="15:16">
+      <c r="O21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="15:15">
-      <c r="O21" t="s">
+    <row r="22" spans="15:16">
+      <c r="O22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="15:15">
-      <c r="O22" t="s">
+    <row r="24" spans="15:16">
+      <c r="O24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="15:15">
-      <c r="O24" t="s">
+    <row r="25" spans="15:16">
+      <c r="O25" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="15:15">
-      <c r="O25" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="11232" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="72" windowWidth="11232" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>

--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="11232" windowHeight="9372"/>
+    <workbookView xWindow="96" yWindow="72" windowWidth="11232" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>C=</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S3:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1363,6 +1363,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
       <c r="O7" t="s">
         <v>91</v>
       </c>
@@ -1374,6 +1377,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
       <c r="O8" t="s">
         <v>67</v>
       </c>

--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>C=</t>
   </si>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S3:S7"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1290,8 +1290,14 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
       <c r="Q2" t="s">
         <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>94</v>
       </c>
       <c r="S2" t="s">
         <v>85</v>
@@ -1327,6 +1333,9 @@
       <c r="O4" t="s">
         <v>64</v>
       </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
       <c r="Q4" t="s">
         <v>93</v>
       </c>
@@ -1341,6 +1350,9 @@
       <c r="O5" t="s">
         <v>65</v>
       </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
       <c r="Q5" t="s">
         <v>92</v>
       </c>
@@ -1355,9 +1367,15 @@
       <c r="O6" t="s">
         <v>66</v>
       </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
       <c r="Q6" t="s">
         <v>82</v>
       </c>
+      <c r="R6" t="s">
+        <v>94</v>
+      </c>
       <c r="S6" t="s">
         <v>89</v>
       </c>
@@ -1372,6 +1390,9 @@
       <c r="Q7" t="s">
         <v>83</v>
       </c>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
       <c r="S7" t="s">
         <v>90</v>
       </c>
@@ -1382,6 +1403,9 @@
       </c>
       <c r="O8" t="s">
         <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
         <v>84</v>

--- a/NOTCH.xlsx
+++ b/NOTCH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="11232" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="90" yWindow="75" windowWidth="11235" windowHeight="9375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>C=</t>
   </si>
@@ -318,7 +318,31 @@
     <t>27 CE</t>
   </si>
   <si>
-    <t>LPF DA (opa404$-656?)</t>
+    <t>Apresentação</t>
+  </si>
+  <si>
+    <t>Soldar AD</t>
+  </si>
+  <si>
+    <t>Soldar DA</t>
+  </si>
+  <si>
+    <t>Testar</t>
+  </si>
+  <si>
+    <t>Soldar resto</t>
+  </si>
+  <si>
+    <t>Injetar sinal multifrequencial</t>
+  </si>
+  <si>
+    <t>Receber sinal e fazer fourier</t>
+  </si>
+  <si>
+    <t>Melhor interface C#</t>
+  </si>
+  <si>
+    <t>Embarcar</t>
   </si>
 </sst>
 </file>
@@ -692,16 +716,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
@@ -973,7 +997,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="C1" t="s">
@@ -1212,19 +1236,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1422,45 +1447,77 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="Q10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="15:16">
+    <row r="18" spans="4:16">
       <c r="O18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="15:16">
+    <row r="19" spans="4:16">
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
       <c r="O19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="15:16">
+    <row r="20" spans="4:16">
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
       <c r="O20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="15:16">
+    <row r="21" spans="4:16">
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
       <c r="O21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="15:16">
+    <row r="22" spans="4:16">
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
       <c r="O22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="15:16">
+    <row r="23" spans="4:16">
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16">
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
       <c r="O24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="15:16">
+    <row r="25" spans="4:16">
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
       <c r="O25" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16">
+      <c r="D26" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
